--- a/contribucion_relativa.xlsx
+++ b/contribucion_relativa.xlsx
@@ -318,56 +318,6 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <fill>
         <patternFill patternType="solid">
@@ -423,6 +373,14 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -446,15 +404,57 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -470,17 +470,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="A1:H3" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="13" headerRowCellStyle="Encabezado 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="A1:H3" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" headerRowCellStyle="Encabezado 1">
   <autoFilter ref="A1:H3"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Nombre" dataDxfId="12" dataCellStyle="Encabezado 4"/>
-    <tableColumn id="2" name="Programación" dataDxfId="11"/>
-    <tableColumn id="3" name="Diseño" dataDxfId="10"/>
-    <tableColumn id="4" name="Producción" dataDxfId="9"/>
-    <tableColumn id="5" name="Arte" dataDxfId="8"/>
-    <tableColumn id="6" name="Comunicación" dataDxfId="7"/>
-    <tableColumn id="7" name="Porcentaje de commits  en repositorio" dataDxfId="6"/>
-    <tableColumn id="8" name="Porcentajes de tareas completadas" dataDxfId="5"/>
+    <tableColumn id="1" name="Nombre" dataDxfId="7" dataCellStyle="Encabezado 4"/>
+    <tableColumn id="2" name="Programación" dataDxfId="6"/>
+    <tableColumn id="3" name="Diseño" dataDxfId="5"/>
+    <tableColumn id="4" name="Producción" dataDxfId="4"/>
+    <tableColumn id="5" name="Arte" dataDxfId="3"/>
+    <tableColumn id="6" name="Comunicación" dataDxfId="2"/>
+    <tableColumn id="7" name="Porcentaje de commits  en repositorio" dataDxfId="1"/>
+    <tableColumn id="8" name="Porcentajes de tareas completadas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -786,7 +786,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -844,7 +844,9 @@
       <c r="F2" s="4">
         <v>0.5</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="4">
+        <v>0.48</v>
+      </c>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -866,7 +868,9 @@
       <c r="F3" s="4">
         <v>0.5</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4">
+        <v>0.52</v>
+      </c>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -980,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1016,23 +1020,23 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B13:F13">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"Los cálculos son correctos"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"Hay algún total que no suma 100%"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:H13">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="notEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
